--- a/resources/plantillas/inscripciones.xlsx
+++ b/resources/plantillas/inscripciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hackathonsis\resources\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99946F7-23DF-418D-B26D-114818D3E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7EB454-D89B-41F6-93EB-C623BADD84D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4F1F53F6-8BC1-4634-8D4D-31DAD6FF68C8}"/>
   </bookViews>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +210,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,8 +228,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +577,7 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +585,7 @@
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="18" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="31.88671875" style="5" customWidth="1"/>
@@ -582,27 +594,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
@@ -615,14 +627,14 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="4"/>
